--- a/配表/技能表.xlsx
+++ b/配表/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -410,61 +410,61 @@
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;50%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-50],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-50],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;75%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-75],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-75],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;100%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-100],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-100],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;125%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-125],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-125],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;150%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-150],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-150],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;200%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-200],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-200],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;250%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-250],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-250],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;300%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-300],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-300],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;350%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-350],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-350],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>投掷龙胆亮银枪，对直线范围内的所有敌人造成攻击力&lt;color=#35a114&gt;500%&lt;/c&gt;的伤害，并击退敌人</t>
   </si>
   <si>
-    <t>[[111,2,1,0,-500],[112,1,1,0,-100]]</t>
+    <t>[[111,2,4,5,-500],[112,1,1,0,-100]]</t>
   </si>
   <si>
     <t>skill_06</t>
@@ -7114,8 +7114,8 @@
   <sheetPr/>
   <dimension ref="A1:J695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A541" workbookViewId="0">
-      <selection activeCell="F526" sqref="F526:F625"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
